--- a/Version 5 (NN for Text)/fyp_text_data.xlsx
+++ b/Version 5 (NN for Text)/fyp_text_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javapocalypse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-FYP\FYP\Version 5 (NN for Text)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="103">
   <si>
     <t>HEADLINE</t>
   </si>
@@ -81,13 +81,265 @@
   </si>
   <si>
     <t>Breakfast on the move to platform for Wednesday's task, absolutely delicious I love tasty  mealtime</t>
+  </si>
+  <si>
+    <t>Wreckage of Missing San Diego-Based Marine Helicopter Found...</t>
+  </si>
+  <si>
+    <t>8 Bodies Found in Wreckage of US Marine Chopper in Nepal</t>
+  </si>
+  <si>
+    <t>Valley man says cousin is 1 of missing U.S. Marines in Nepal</t>
+  </si>
+  <si>
+    <t>UPDATED: 'Unlikely' Any Survived Camp Pen Chopper Crash in Nepal</t>
+  </si>
+  <si>
+    <t>Wreckage Of Missing Marine Helicopter Found In Nepal, Bodies Recovered</t>
+  </si>
+  <si>
+    <t>Survivors ‘unlikely’ in Nepal chopper crash: US military</t>
+  </si>
+  <si>
+    <t>Nepal rescuers find 3 bodies near crashed U.S. Marine chopper</t>
+  </si>
+  <si>
+    <t>Nepal army finds wreckage of missing US chopper</t>
+  </si>
+  <si>
+    <t>Wreckage of crashed U.S. copter found in Nepal</t>
+  </si>
+  <si>
+    <t>‘Nepal Has Been Torn Apart’, Secretary-General Tells General Assembly, Calls for Stepped-Up Aid under a Resilient Recovery Approach</t>
+  </si>
+  <si>
+    <t>23 bodies unclaimed at Kathmandu, Nepal, morgue</t>
+  </si>
+  <si>
+    <t>Nepal: Missing U.S. Marine Chopper Found Crashed Near China Border</t>
+  </si>
+  <si>
+    <t>‘We don’t know if there are any survivors’: Nepal army finds wreckage of missing US Marine chopper</t>
+  </si>
+  <si>
+    <t>Debris of missing US plane found</t>
+  </si>
+  <si>
+    <t>Missing US chopper wreckage found</t>
+  </si>
+  <si>
+    <t>Nepal rescuers find 3 bodies near crashed US Marine chopper</t>
+  </si>
+  <si>
+    <t>Survivors 'unlikely' in Nepal chopper crash: US military</t>
+  </si>
+  <si>
+    <t>Toll in Nepal quakes reaches 8,502</t>
+  </si>
+  <si>
+    <t>Unlikely anyone survived Marine helicopter crash, US commander says</t>
+  </si>
+  <si>
+    <t>US Marine Huey Helicopter's debris found in Nepal</t>
+  </si>
+  <si>
+    <t>8 Bodies Recovered From U.S. Helicopter Crash Site in Nepal; Pilot Identified</t>
+  </si>
+  <si>
+    <t>Wreckage of missing Pendleton chopper found in Nepal; No survivors found</t>
+  </si>
+  <si>
+    <t>Dozens Believed Dead in Second Nepal Quake</t>
+  </si>
+  <si>
+    <t>At least 41 killed, buildings collapse in fresh Nepal earthquake</t>
+  </si>
+  <si>
+    <t>Four dead in Nepal's Chautara after quake destroys buildings</t>
+  </si>
+  <si>
+    <t>50 killed as new, powerful quake hits Nepal</t>
+  </si>
+  <si>
+    <t>At Least 32 Dead After Another Powerful Earthquake Hits Nepal</t>
+  </si>
+  <si>
+    <t>Four killed as another big quake jolts Nepal</t>
+  </si>
+  <si>
+    <t>Eight injured as quake jolts Bengal</t>
+  </si>
+  <si>
+    <t>Another major earthquake, magnitude 7.4, has struck Nepal</t>
+  </si>
+  <si>
+    <t>The operation, as per the report, was conducted from November 5 to 15</t>
+  </si>
+  <si>
+    <t>The KMC has reportedly sent the report to Commissioner Karachi along with the pictures of the cleared area</t>
+  </si>
+  <si>
+    <t>The concerned authorities were also ordered to demolish shops illegally built under the FTC flyover.</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Dozens die in new tremor near Everest</t>
+  </si>
+  <si>
+    <t>Another major earthquake shakes Nepal, killing at least 37</t>
+  </si>
+  <si>
+    <t>At least 32 dead after another powerful earthquake hits Nepal</t>
+  </si>
+  <si>
+    <t>Fresh earthquake brings panic, damage and death to Nepal</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Magnitude-7.3 quake strikes near Everest base camp; at least 66 killed</t>
+  </si>
+  <si>
+    <t>Dozens dead as new quake hits shattered Nepal</t>
+  </si>
+  <si>
+    <t>U.S. Marine Corps helicopter with 8 on board missing in Nepal quake zone - Xinhua</t>
+  </si>
+  <si>
+    <t>32 killed in Nepal earthquake</t>
+  </si>
+  <si>
+    <t>19 killed as new powerful quake jolts Nepal</t>
+  </si>
+  <si>
+    <t>Dozens Killed, Thousands Injured As Nepal Hit With Second Powerful Earthquake</t>
+  </si>
+  <si>
+    <t>Nepal Army rescues 117 people still stranded in cut-off trekking villages</t>
+  </si>
+  <si>
+    <t>Death toll in Nepal reaches 117 as nearly 1,000 hurt in latest quake</t>
+  </si>
+  <si>
+    <t>Seven killed, 150 injured in Nepal quake: Police</t>
+  </si>
+  <si>
+    <t>Dozens Dead After Another Big Quake in Nepal</t>
+  </si>
+  <si>
+    <t>US military helicopter missing in Nepal with eight on board</t>
+  </si>
+  <si>
+    <t>UPDATE 1-Another strong earthquake hits Nepal, close to Everest</t>
+  </si>
+  <si>
+    <t>Four killed as new quake hits shattered Nepal</t>
+  </si>
+  <si>
+    <t>24 killed as new quake hits shattered Nepal</t>
+  </si>
+  <si>
+    <t>Major Earthquake Jolts Nepal, 26 Killed; 8 Dead in India</t>
+  </si>
+  <si>
+    <t>Nepal earthquake latest: Thousands spend night outdoors; death toll rises</t>
+  </si>
+  <si>
+    <t>Dozens killed, hundreds injured as second major earthquake hits Nepal</t>
+  </si>
+  <si>
+    <t>42 killed as new quake hits shattered Nepal</t>
+  </si>
+  <si>
+    <t>EVENTS IN TIME (BIBLE PROPHECY LITERALLY FULFILLED)(BY GOD): ANOTHER MAJOR 7.3 QUAKE IN NEPAL TODAY-56 KILLED ANOTHER 1,100 INJURED</t>
+  </si>
+  <si>
+    <t>New Nepal quake leaves dozens dead</t>
+  </si>
+  <si>
+    <t>42 killed and over 1,000 injured in the latest Nepal earthquake</t>
+  </si>
+  <si>
+    <t>At least 42 dead in latest major earthquake to strike Nepal</t>
+  </si>
+  <si>
+    <t>11 killed, 300 injured in latest Nepal quake - Xinhua</t>
+  </si>
+  <si>
+    <t>After Second Nepal Earthquake Death Toll Rises and Six U.S. Marrines Missing</t>
+  </si>
+  <si>
+    <t>Tremors measuring 7.3 rock several parts of India, 17 die</t>
+  </si>
+  <si>
+    <t>Fresh Nepal earthquake: Death toll reaches 65, over 1900 injured</t>
+  </si>
+  <si>
+    <t>Police begin aerial firing to disperse Thatta protesters blocking the National Highway</t>
+  </si>
+  <si>
+    <t>Google workers walk out in global protest against harassment</t>
+  </si>
+  <si>
+    <t>Protests likely to end by Thursday night: Punjab minister</t>
+  </si>
+  <si>
+    <t>Students protest against encroachments in Sialkot as their teachers look on</t>
+  </si>
+  <si>
+    <t>Utility Stores employees threaten to enter Islamabad’s Red Zone if demands not met by 5pm</t>
+  </si>
+  <si>
+    <t>PML-N to stage protests if Shehbaz not brought to the next parliament session: Rana Sanaullah</t>
+  </si>
+  <si>
+    <t>Students at a Rawalpindi college say they won’t allow their classmate’s death to be covered up</t>
+  </si>
+  <si>
+    <t>North Karachi child was kidnapped by father’s friend</t>
+  </si>
+  <si>
+    <t>Indian Muslims protest to demand 5% reservation in jobs, education</t>
+  </si>
+  <si>
+    <t>ECP office in Islamabad surrounded by opposition parties protesting against rigging</t>
+  </si>
+  <si>
+    <t>The Sindh-Balochistan Bypass is blocked in Jacobabad because of a protest against rigging</t>
+  </si>
+  <si>
+    <t>Sindh headlines: First female Hindu candidate and Hunger strike against Kalabagh Dam</t>
+  </si>
+  <si>
+    <t>Error in PTI candidate list triggers protest</t>
+  </si>
+  <si>
+    <t>PTI protest in Multan leaves three women injured</t>
+  </si>
+  <si>
+    <t>The food fest, which just seems to get bigger and better every year, kicks off on 12 January, ending on 14 January 2018.</t>
+  </si>
+  <si>
+    <t>Bigger than ever, this year Karachi Eat will feature a whopping 125 stalls</t>
+  </si>
+  <si>
+    <t>Last year, Karachi Eat boasted around 95-98 stalls; this year, they've got 125.</t>
+  </si>
+  <si>
+    <t>By the way, Karachi Eat 2018 is NOT happening at Frere Hall</t>
+  </si>
+  <si>
+    <t>The man behind this joint from Lahore, Daniyal Noorani is bringing his samosas with a twist to Karachi!</t>
+  </si>
+  <si>
+    <t>We are basically aiming to experiment on different types of dishes and bringing them in a way Karachiites haven't had before.</t>
+  </si>
+  <si>
+    <t>Think Karachi Eat is a gluttonous affair? You got that right!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +350,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF14171A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,10 +396,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +688,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="220.7109375" customWidth="1"/>
+    <col min="1" max="1" width="172" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,6 +820,702 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Version 5 (NN for Text)/fyp_text_data.xlsx
+++ b/Version 5 (NN for Text)/fyp_text_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="295">
   <si>
     <t>HEADLINE</t>
   </si>
@@ -333,13 +333,589 @@
   </si>
   <si>
     <t>Think Karachi Eat is a gluttonous affair? You got that right!</t>
+  </si>
+  <si>
+    <t>Nepal death toll 4,347, may touch 10,000</t>
+  </si>
+  <si>
+    <t>Nepalis spend third night in open as quake toll passes 4,000</t>
+  </si>
+  <si>
+    <t>'People have nothing left': scale of Nepal quake devastation emerges</t>
+  </si>
+  <si>
+    <t>Aid agencies struggle to reach remote villages as Nepal death toll climbs</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Death toll passes 4,800 as rescuers face challenges</t>
+  </si>
+  <si>
+    <t>Death toll exceeds 4,000 as aftershocks terrify survivors</t>
+  </si>
+  <si>
+    <t>Nepal Death Toll Could Reach 10,000: Millions Starving, Entire Mountain Villages Flattened</t>
+  </si>
+  <si>
+    <t>Nepal earthquake death toll could hit 10,000</t>
+  </si>
+  <si>
+    <t>Nepal quake death toll reaches 4,485</t>
+  </si>
+  <si>
+    <t>UN says 8-M people affected by quake</t>
+  </si>
+  <si>
+    <t>Foreign Ministry working to locate 116 Spaniards in wake of Nepal quake</t>
+  </si>
+  <si>
+    <t>Death toll climbs to 3,351 in Nepal quake</t>
+  </si>
+  <si>
+    <t>Fresh tremors hit many states, toll climbs to 62</t>
+  </si>
+  <si>
+    <t>Melbourne woman Renu Fotedar killed in Nepal earthquake</t>
+  </si>
+  <si>
+    <t>Mother's agony after uncle dies in Nepal earthquake</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Army rescue man buried under quake rubble</t>
+  </si>
+  <si>
+    <t>Four Americans confirmed dead in Mount Everest avalanche</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Amateur drone footage reveals Kathmandu damage as toll tops 4000</t>
+  </si>
+  <si>
+    <t>Nepal earthquake update: 3218 dead, 6500 injured; massive rescue ops under way</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Aid effort stepped up as death toll rises</t>
+  </si>
+  <si>
+    <t>Death toll passes 3200 as aftershocks rattle Nepal</t>
+  </si>
+  <si>
+    <t>4,000 Chinese stranded, army sent to help Nepal[1]- Chinadaily.com.cn</t>
+  </si>
+  <si>
+    <t>Nepal earthquake: Death toll crosses 3000, more than 6,500 others injured</t>
+  </si>
+  <si>
+    <t>UN says eight million affected by Nepal earthquake</t>
+  </si>
+  <si>
+    <t>Nepal | More than 2,500 confirmed dead in earthquake</t>
+  </si>
+  <si>
+    <t>No end in suffering for Nepal: officially 3.220 dead and powerful aftershocks</t>
+  </si>
+  <si>
+    <t>1 Chinese climber killed, 2 seriously injured in Mt. Qomolangma avalanche</t>
+  </si>
+  <si>
+    <t>Nepal Quake Death Toll Rises To 3500: Reoprts</t>
+  </si>
+  <si>
+    <t>Desperate fears for West Australians missing in Nepal earthquake as death toll soars</t>
+  </si>
+  <si>
+    <t>Nepal declares national crisis as quake toll tops 4000</t>
+  </si>
+  <si>
+    <t>Landmark Tower opened in 1957 was one of the tallest ever demolished by explosives.</t>
+  </si>
+  <si>
+    <t>I grew up with amazing stirfries that my mom used to make for us all the time.</t>
+  </si>
+  <si>
+    <t>My favourites were beef and brocolli, beef and zucchini and beef and green beans.</t>
+  </si>
+  <si>
+    <t>Usually my veggies are overcooked, my meat is a little on the chewier side, or the flavours just aren't the same. </t>
+  </si>
+  <si>
+    <t>I am always looking for new muffin recipes.</t>
+  </si>
+  <si>
+    <t>You are probably wondering why I have so many bananas.</t>
+  </si>
+  <si>
+    <t>These cheesy chicken fajita stuffed buns and chicken Alfredo spaghetti rolls are the answer to your iftar prayers</t>
+  </si>
+  <si>
+    <t>Date shake, hummus, bite-sized sandwiches and peri bites – what more can one want for iftar?</t>
+  </si>
+  <si>
+    <t>When pizza meets French toast, love transpires</t>
+  </si>
+  <si>
+    <t>Pakistan may be poor, but it has a rich culture – much richer than any country in the west</t>
+  </si>
+  <si>
+    <t>Calling all cheese lovers, this one’s for you!</t>
+  </si>
+  <si>
+    <t>This food street inspired white chicken karhai will leave those desi taste buds drooling for more</t>
+  </si>
+  <si>
+    <t>Hello, I am a man and I cheat… on my diet</t>
+  </si>
+  <si>
+    <t>Baingan ka bharta: Baba ghanoush with a Pakistani twist</t>
+  </si>
+  <si>
+    <t>Craving for carbs or had a crazy day? Potato bhujia is the way!</t>
+  </si>
+  <si>
+    <t>This Eidul Azha, go Kheer a la mode!</t>
+  </si>
+  <si>
+    <t>Welcoming Autumn with tamarind lamb cutlets and a spicy chickpea chat salad</t>
+  </si>
+  <si>
+    <t>Shocking, funny and likeable experiences of Pakistan</t>
+  </si>
+  <si>
+    <t>Do you know where ‘chai’ came from?</t>
+  </si>
+  <si>
+    <t>Daal Maash today, paratha tomorrow!</t>
+  </si>
+  <si>
+    <t>This Achari Bhindi is a vegetarian’s delight!</t>
+  </si>
+  <si>
+    <t>My mother in law’s chicken haandi recipe: The perfect dish for a casual dinner</t>
+  </si>
+  <si>
+    <t>I found a little bit of Pakistan in Hong Kong!</t>
+  </si>
+  <si>
+    <t>Food poisoning: SFA to begin inquiry after investigation report, SHC told</t>
+  </si>
+  <si>
+    <t>Punjab objects over Sindh's participation in water distribution meeting</t>
+  </si>
+  <si>
+    <t>Farmers demand Punjab return Sindh’s stolen water</t>
+  </si>
+  <si>
+    <t>Sindh Assembly: Session adjourned due to lack of quorum</t>
+  </si>
+  <si>
+    <t>Empress Market: CM tells mayor to involve experts in restoration work</t>
+  </si>
+  <si>
+    <t>May 12 Carnage: Police told to investigate MQM worker</t>
+  </si>
+  <si>
+    <t>Show-cause notice: Water commission puts PHED official on notice</t>
+  </si>
+  <si>
+    <t>Water issue: Sindh Action Committee protests against dams on Indus</t>
+  </si>
+  <si>
+    <t>11th Urdu Conference begins tomorrow</t>
+  </si>
+  <si>
+    <t>Fighting chance: Sindh Varsity VC asks SHC to bar ACE from registering FIR</t>
+  </si>
+  <si>
+    <t>Rs50m embezzlement: SHC seeks plea bargain details from NAB</t>
+  </si>
+  <si>
+    <t>MPAs criticise federal govt for its ‘incompetence’</t>
+  </si>
+  <si>
+    <t>KMC officer narrowly escapes attack on anti-encroachment team in Saddar</t>
+  </si>
+  <si>
+    <t>Shahzeb Khan case: SHC hears appeals against convictions</t>
+  </si>
+  <si>
+    <t>Celebrating progress: SMIU confers degrees on 271 students</t>
+  </si>
+  <si>
+    <t>Naib qasid turns out to be owner of multimillion-rupee company in Sindh</t>
+  </si>
+  <si>
+    <t>Sindh Theatre Festival commences at Arts Council</t>
+  </si>
+  <si>
+    <t>Sindh bans pillion-riding, rallies for 10 days</t>
+  </si>
+  <si>
+    <t>Even good-looking heroes face difficulty: Imran Ashraf</t>
+  </si>
+  <si>
+    <t>PTI govt approves wheat export at subsidised rate</t>
+  </si>
+  <si>
+    <t>Four injured in Chaman mosque blast</t>
+  </si>
+  <si>
+    <t>Indian troops martyr senior Tehreek-e-Hurriyat leader in IoK</t>
+  </si>
+  <si>
+    <t>Misuse of enemy property stirs cabinet’s concern</t>
+  </si>
+  <si>
+    <t>Pakistan intends to replicate Malaysian economic model: PM Imran</t>
+  </si>
+  <si>
+    <t>Pakistan helped US track down bin Laden: FO</t>
+  </si>
+  <si>
+    <t>Corruption reference: Hearing adjourned in KPT appointments case</t>
+  </si>
+  <si>
+    <t>Karachi – ‘engine of national economy’ – deserves even better security: COAS</t>
+  </si>
+  <si>
+    <t>Convoy of vintage cars begin journey from Karachi to Torkham</t>
+  </si>
+  <si>
+    <t>Load shedding: SHC issues notices to KE, others</t>
+  </si>
+  <si>
+    <t>Six power firms tasked with extra recovery of Rs82b</t>
+  </si>
+  <si>
+    <t>Dark reign imposed on the masses: Bilawal</t>
+  </si>
+  <si>
+    <t>SC directs PAK-EPA to monitor bottled water companies</t>
+  </si>
+  <si>
+    <t>Katas Raj Temple: Judicial commission gets water samples</t>
+  </si>
+  <si>
+    <t>Lahore's master plan: All stakeholders urged to provide input</t>
+  </si>
+  <si>
+    <t>Self-employment: ‘Micro-financing to help reduce unemployment’</t>
+  </si>
+  <si>
+    <t>Children’s Day: Provincial government urged to pass effective legislation</t>
+  </si>
+  <si>
+    <t>HEC urged to revise its PhD policy</t>
+  </si>
+  <si>
+    <t>Police confirm security plan for Eid Miladun Nabi</t>
+  </si>
+  <si>
+    <t>Paragon City director remanded</t>
+  </si>
+  <si>
+    <t>‘Civilised nations adopt peaceful protest’</t>
+  </si>
+  <si>
+    <t>SC summons report on 2012 honour killing case</t>
+  </si>
+  <si>
+    <t>Knorr Noodles, The Citizens Foundation team up to educate 10,000 kids</t>
+  </si>
+  <si>
+    <t>85-year-old blogger becomes sensation overnight</t>
+  </si>
+  <si>
+    <t>5 handy ice cube tray hacks</t>
+  </si>
+  <si>
+    <t>Hot coffee is healthier than cold, says study</t>
+  </si>
+  <si>
+    <t>Mountain Dew’s daredevil stunt show is back with a bang in Islamabad</t>
+  </si>
+  <si>
+    <t>8 ways 'ghee' can benefit you</t>
+  </si>
+  <si>
+    <t>Two dead, several injured in Karachi blast</t>
+  </si>
+  <si>
+    <t>Three FC men martyred in Margat blast</t>
+  </si>
+  <si>
+    <t>70 BLA insurgents say farewell to arms</t>
+  </si>
+  <si>
+    <t>Security heightened in Balochistan for Eid Miladun Nabi</t>
+  </si>
+  <si>
+    <t>BHC seeks reply on special assistants’ appointment</t>
+  </si>
+  <si>
+    <t>By-elections on PB-26 Quetta on Dec 31</t>
+  </si>
+  <si>
+    <t>ANP slams govt over begging for loan</t>
+  </si>
+  <si>
+    <t>Over 3,000 personnel to be on security duty</t>
+  </si>
+  <si>
+    <t>At least 70 militants, including commander, surrender in Balochistan</t>
+  </si>
+  <si>
+    <t>Balochistan Assembly speaker ‘to resign’</t>
+  </si>
+  <si>
+    <t>Govt aims to bring reforms in WASA</t>
+  </si>
+  <si>
+    <t>Chief minister woos Saudi investment</t>
+  </si>
+  <si>
+    <t>Knots of protesters from an ultra-Islamist party blocked roughly 10 key roads in the southern city of Karachi and others in eastern Lahore</t>
+  </si>
+  <si>
+    <t>Groups of about 200 protesters from the Tehreek-e-Labaik (TLP) party sat under large tents, listening to speeches on two blocked roads in Karachi, a Reuters witness said.</t>
+  </si>
+  <si>
+    <t>Islamist protesters blocked roads in Pakistan´s major cities for a second day on Thursday, opposing a Supreme Court decision the previous day to acquit a Christian woman on death row for blasphemy allegations, media said.</t>
+  </si>
+  <si>
+    <t>In Peshawar, protests are being staged at the Ring Road and GT Road. Roads leading to the motorway have also been blocked.</t>
+  </si>
+  <si>
+    <t>Schools and colleges across Punjab will remain closed today (Thursday) in the wake of countrywide protests after the Supreme Court acquitted Asia Bibi in the blasphemy case</t>
+  </si>
+  <si>
+    <t>A private school body has announced that it will not open schools across Sindh on Thursday in view of the poor law and order situation.</t>
+  </si>
+  <si>
+    <t>Pakistan erupts in protests as Christian woman cleared of blasphemy</t>
+  </si>
+  <si>
+    <t>A protest rally was taken out to protest against construction of dam at Indus River and issuance of national identity cards to non-Sindhi people.</t>
+  </si>
+  <si>
+    <t>The lawyers continued strike on 7th consecutive day on Tuesday. They locked entrance of Session Court, DC office, and Election Commission office.</t>
+  </si>
+  <si>
+    <t>Passengers staged protest at the Lahore airport against PIA admin as accordind to protesters the national airline flight left their luggage at Islamabad airport on Saturday.</t>
+  </si>
+  <si>
+    <t>Lawyers protest against attack on colleague's house</t>
+  </si>
+  <si>
+    <t>Protests erupt in major cities as SC acquits Asia Bibi of blasphemy charges</t>
+  </si>
+  <si>
+    <t>Protests  have erupted in the major cities of Pakistan after the Supreme Court acquitted   Asia BiBi of blasphemy charges on Wednesday.</t>
+  </si>
+  <si>
+    <t>Baldia Town, Numaish Chowrangi, Shahra-e-Faisal, Star Gate, Sohrab Goth, Al-Asif Square, Orangi Town Number 5, Surjani Town, 4-K Chowrangi and Tower were affected by the protests.</t>
+  </si>
+  <si>
+    <t>Due to protest the vehicles coming from Hyderabad are being diverted to Abull Asfahani Road due to closure of Sohrab Goth.</t>
+  </si>
+  <si>
+    <t>Tarrafic was diverted to II Chandrigarh Road from Jinnah Bridge while Babaye Urdu Road was being used by theas an alternative after protestors blocked MA Jinnah ROad.</t>
+  </si>
+  <si>
+    <t>Protesters are thronging the Faizabad Interchange while Islamabad Expressway is closed at Shakrial and Grand Trunk Road at Gojar Khan.</t>
+  </si>
+  <si>
+    <t>'Swarming' sit-down protests disrupt London traffic</t>
+  </si>
+  <si>
+    <t>Extinction Rebellion continues climate change protest by blockading London bridges</t>
+  </si>
+  <si>
+    <t>Environmentalists bring traffic to a standstill across the capital.</t>
+  </si>
+  <si>
+    <t>Extinction Rebellion protest in London: 'Swarming' rallies bring traffic in capital to standstill</t>
+  </si>
+  <si>
+    <t>French ambulances block Paris highway for second day, protesting reforms</t>
+  </si>
+  <si>
+    <t>Hundreds of Cape Bretoners protest pending hospital closures along Canso Causeway</t>
+  </si>
+  <si>
+    <t>Traders and citizens of the garrison city say the closure of roads by the Pakistan Railways is creating problems for them and is leading to a traffic mess.</t>
+  </si>
+  <si>
+    <t> Motorists in Atlantis, around 40km north of Cape Town, have been advised to use alternative routes following road closures because of a protest on Thursday morning.</t>
+  </si>
+  <si>
+    <t>Violent protests have closed one of the busiest toll roads in the country - the Mooi River Toll plaza on the N3 between Durban and Johannesburg.</t>
+  </si>
+  <si>
+    <t>Protest action taking place in the vicinity of #MooiPlaza. Total road closure. Please delay your trips. We urge all drivers to be extremely cautious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RTI says firefighters were stoned &amp; prevented from putting out fires after #MooiRiverTollPlaza protestors set trucks alight, including a fuel tanker &amp; SPAR branded delivery trucks </t>
+  </si>
+  <si>
+    <t>Steenberg Road and Westlake Drive has been closed to traffic due to violent protesting in the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPE TOWN - Roads in and around Atlantis have been closed due to ongoing protests. </t>
+  </si>
+  <si>
+    <t>CAPE TOWN - A housing protest has flared up in Steenberg resulting in road closures.</t>
+  </si>
+  <si>
+    <t>2 cargo trucks have been burnt during protests in Thembalethu, George which erupted yesterday, &amp; several roads have been closed.</t>
+  </si>
+  <si>
+    <t>Several roads off the key M5 highway in Cape Town were closed on Monday as violent community protests at Parkwood and Vrygrond continued unabated</t>
+  </si>
+  <si>
+    <t>City officials reported that cars have been stoned and tyres burned on roads near Parkwood, causing roads to be closed in Plumstead and surrounding areas.</t>
+  </si>
+  <si>
+    <t>Protests have played havoc with roads in Cape Town on Thursday morning, while heavy morning rainfall has also slowed down traffic.</t>
+  </si>
+  <si>
+    <t>Violent protests on Saturday morning in Hout Bay have closed roads and lead to the suspension of bus services.</t>
+  </si>
+  <si>
+    <t>Ethiopia protests block roads, shut businesses</t>
+  </si>
+  <si>
+    <t>A fruit and vegetable store on Highlands Drive was damaged in the early hours of Wednesday morning</t>
+  </si>
+  <si>
+    <t>An ATM at Highlands Drive Caltex petrol station was vandalised in a protest</t>
+  </si>
+  <si>
+    <t>An “ampela” taxi was also vandalised during the protest</t>
+  </si>
+  <si>
+    <t>A small group of protestors blocked the N2 Highway with burning debris, causing traffic to come to a standstill.</t>
+  </si>
+  <si>
+    <t>Protest action in Mitchells Plain - road closures, expect delays</t>
+  </si>
+  <si>
+    <t>Both tracks of the Liaquatabad-Nazimabad underpass are closed for traffic due to protests.</t>
+  </si>
+  <si>
+    <t>The protesters have blocked the Jamaa cloth market on MA Jinnah Road.</t>
+  </si>
+  <si>
+    <t>Protesters are on the Korangi-DHA road near NMC hospital and traffic heading towards Kala Pull is blocked. Protesters have blocked the roads around the KPT Interchange.</t>
+  </si>
+  <si>
+    <t>Protests have started at Meera Naka and Sultanabad and both roads are closed for traffic.</t>
+  </si>
+  <si>
+    <t>Protests have broken out at Malir Mandir, Murghi Khana, and the Total petrol pump in front of the Super Highway.</t>
+  </si>
+  <si>
+    <t>Due to protest in Manghopir, Mirza Adam Road and Bus Terminals road is closed for traffic.</t>
+  </si>
+  <si>
+    <t>Due to a protest on the Super Highway near Jamali Bridge, both sides of the road are closed for traffic.</t>
+  </si>
+  <si>
+    <t>Roads from Askari X and Bhatta Chowk to Allama Iqbal International Airport have been blocked by protestors, delay expected.</t>
+  </si>
+  <si>
+    <t>Protests are being staged on Ring Road and GT Road. Roads leading to the motorway have also been blocked.</t>
+  </si>
+  <si>
+    <t>Police made more than 150 arrests as a crowd broke windows and knocked down fences, protesting sentence of former BART officer in shooting of Oscar Grant on New Years Day</t>
+  </si>
+  <si>
+    <t>Demonstrators blocked the bridge and more than 700 people were arrested.</t>
+  </si>
+  <si>
+    <t>Protesters shattered windows, set fires, and plastered buildings with graffiti.</t>
+  </si>
+  <si>
+    <t>Rescuers carry an injured woman amid the rubble of collapsed buildings in Amatrice, central Italy</t>
+  </si>
+  <si>
+    <t>The first storey of this three-storey building was damaged because of liquefaction; the second storey collapsed: only the third storey is visible. </t>
+  </si>
+  <si>
+    <t>A collapsed highway in the Oakland area of San Francisco by earthquake</t>
+  </si>
+  <si>
+    <t>Nepal earthquake destroys Kathmandu valley's architectural treasures</t>
+  </si>
+  <si>
+    <t>People take shelter at the Pashupatinath temple in Kathmandu, Nepal, one of the buildings to survive the earthquake</t>
+  </si>
+  <si>
+    <t>"An avalanche from Mt Pumori has hit the base camp, burying a part of it.</t>
+  </si>
+  <si>
+    <t>Among the Kathmandu landmarks destroyed by the quake was the historic 60-metre-high Dharahara Tower, built in 1832 for the queen of Nepal.</t>
+  </si>
+  <si>
+    <t>Violence erupted after multiple shootings in the neighborhood by police that included unarmed Manuel Diaz. 24 people were arrested</t>
+  </si>
+  <si>
+    <t> After prosecutors and a grand jury refused to indict a police officer in the death of Eric Garner, protests erupted in New York City and other cities.</t>
+  </si>
+  <si>
+    <t>A series of riots and civil disturbances that took place in Oakland and the surrounding area, in reaction to the events involving the Shooting of Michael Brown</t>
+  </si>
+  <si>
+    <t>Five people arrested and two police officers injured during a demonstration at the UIC Pavilion.</t>
+  </si>
+  <si>
+    <t>Protests and riots break out in response to the shooting of Keith Lamont Scott by a Charlotte police officer.</t>
+  </si>
+  <si>
+    <t>Berkeley protests become violent when Trump supporters and protestors clashed at "Patriot's Day" rally for Trump</t>
+  </si>
+  <si>
+    <t>Violence breaks out at May Day protests in Olympia, and Portland, as masked anarchists damage property and clash with police.</t>
+  </si>
+  <si>
+    <t>A Miami policeman shoots a black video game player in an arcade. Riots breakout in the Overtown section of Miami.</t>
+  </si>
+  <si>
+    <t>Protesters ransack H&amp;M shops in South Africa amid anger over 'racist' image of child model</t>
+  </si>
+  <si>
+    <t>McDonald’s in Berkeley was one of the many businesses damaged during recent protests in the city.</t>
+  </si>
+  <si>
+    <t>Dianne Swart says her rental house was burnt down in the middle of the night and she has no idea what to do now</t>
+  </si>
+  <si>
+    <t>The entire street is littered with rocks and glass from the protest action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More damaged shops along Voortrekker street in Coligny, North West where protests broke out over the death of a boy </t>
+  </si>
+  <si>
+    <t>A Zenex garage is being swept after protestors damaged most of the exterior of the building</t>
+  </si>
+  <si>
+    <t>Many shops were destroyed and looted on Voortrekker street in the ColignyProtest</t>
+  </si>
+  <si>
+    <t>Protesters looted a liquor store, and allegedly set three trucks alight in Coligny,</t>
+  </si>
+  <si>
+    <t>Tensions were running high in Coligny and Lichtenburg in the North West after protesters plundered shops and burnt vehicles</t>
+  </si>
+  <si>
+    <t>Four trucks were set alight in the area, including a truck transporting 38 000 chicks on Friday.</t>
+  </si>
+  <si>
+    <t>Groups of “swarming” climate change protesters are blocking major roads in central London as part of the escalating Extinction Rebellion movement.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +951,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -396,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +994,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +1303,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,51 +1366,51 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" t="s">
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,26 +1663,26 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>50</v>
+      <c r="A48" t="s">
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
+      <c r="A49" t="s">
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,178 +1934,1762 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>139</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>140</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>141</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>142</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>143</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>144</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>145</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>146</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>147</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>148</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>149</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>150</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>152</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>153</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>154</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>156</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>157</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>158</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>159</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>160</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>161</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>162</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>163</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>164</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>165</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>166</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>167</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>168</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>169</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>171</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>163</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>172</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>173</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>174</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>176</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>177</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>178</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>179</v>
+      </c>
+      <c r="B260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>180</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>182</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>183</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>167</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>184</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>185</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>186</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>157</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>158</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>187</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>188</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>189</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>190</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>191</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>192</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>193</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>194</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>195</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>196</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>197</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>198</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>199</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>200</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>201</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>202</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>176</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>203</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>204</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>205</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>206</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>207</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>208</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>209</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>210</v>
+      </c>
+      <c r="B296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>211</v>
+      </c>
+      <c r="B297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>212</v>
+      </c>
+      <c r="B298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>213</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>214</v>
+      </c>
+      <c r="B300" t="s">
         <v>13</v>
       </c>
     </row>
